--- a/data/OpenChiller-lubang.xlsx
+++ b/data/OpenChiller-lubang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Report Planogram\Report-Planogram\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419FA5F6-E616-4C81-A39F-876ED7D308F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AAB5DF-D7BD-44FE-AA45-DCD95BA825D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{562E917B-8096-4F98-86B9-D356F2E4756B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>NOTCHES</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>HOLE</t>
-  </si>
-  <si>
-    <t>JENLOK</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
 </sst>
 </file>
@@ -563,550 +557,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433E4886-0683-44E2-BAE1-19F053371A6C}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="B30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="B31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="B32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="B33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="B34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="B35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="B36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="B37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="B38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="B39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="B40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="B41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="B42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="B43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="B44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="B45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="B46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="B47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="B48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="B49">
         <v>48</v>
       </c>
     </row>
